--- a/day08/data/다나와_무선청소기_결과.xlsx
+++ b/day08/data/다나와_무선청소기_결과.xlsx
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1043690</t>
+          <t>1043700</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>778960</t>
+          <t>778970</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>495910</t>
+          <t>495920</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>297990</t>
+          <t>298000</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>40560</t>
+          <t>40550</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>335510</t>
+          <t>335500</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>765160</t>
+          <t>765170</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>449340</t>
+          <t>449330</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>482620</t>
+          <t>482630</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>638990</t>
+          <t>638980</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>99800</t>
+          <t>99790</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>538020</t>
+          <t>538990</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>52510</t>
+          <t>51920</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>199870</t>
+          <t>199880</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>1635000</t>
+          <t>1634990</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>55090</t>
+          <t>55080</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>64880</t>
+          <t>64870</t>
         </is>
       </c>
     </row>
@@ -4762,7 +4762,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>446000</t>
+          <t>632580</t>
         </is>
       </c>
     </row>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>172920</t>
+          <t>172910</t>
         </is>
       </c>
     </row>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>600070</t>
+          <t>600080</t>
         </is>
       </c>
     </row>
@@ -5578,7 +5578,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>848070</t>
+          <t>848080</t>
         </is>
       </c>
     </row>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>460090</t>
+          <t>460100</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>39010</t>
+          <t>39000</t>
         </is>
       </c>
     </row>
@@ -7329,7 +7329,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>5900</t>
+          <t>5890</t>
         </is>
       </c>
     </row>
@@ -7363,7 +7363,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>77353</t>
+          <t>77675</t>
         </is>
       </c>
     </row>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>17300</t>
+          <t>17290</t>
         </is>
       </c>
     </row>
@@ -8978,7 +8978,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>47790</t>
+          <t>47800</t>
         </is>
       </c>
     </row>
@@ -10219,7 +10219,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>37070</t>
+          <t>37060</t>
         </is>
       </c>
     </row>
@@ -12905,7 +12905,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>367630</t>
+          <t>367640</t>
         </is>
       </c>
     </row>
@@ -15251,7 +15251,7 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>1905240</t>
+          <t>1905250</t>
         </is>
       </c>
     </row>
@@ -16405,7 +16405,7 @@
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>118137</t>
+          <t>118629</t>
         </is>
       </c>
     </row>
@@ -16592,7 +16592,7 @@
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>2037831</t>
+          <t>2046315</t>
         </is>
       </c>
     </row>
@@ -16643,7 +16643,7 @@
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>184207</t>
+          <t>184974</t>
         </is>
       </c>
     </row>
@@ -16694,7 +16694,7 @@
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>56060</t>
+          <t>56050</t>
         </is>
       </c>
     </row>
@@ -16711,7 +16711,7 @@
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>1266240</t>
+          <t>1266250</t>
         </is>
       </c>
     </row>
@@ -17697,7 +17697,7 @@
       </c>
       <c r="C1016" t="inlineStr">
         <is>
-          <t>4450</t>
+          <t>4440</t>
         </is>
       </c>
     </row>
@@ -19023,7 +19023,7 @@
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>692060</t>
+          <t>692066</t>
         </is>
       </c>
     </row>
@@ -19720,7 +19720,7 @@
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>1644100</t>
+          <t>1644110</t>
         </is>
       </c>
     </row>
@@ -22351,7 +22351,7 @@
       </c>
       <c r="C1290" t="inlineStr">
         <is>
-          <t>193130</t>
+          <t>193140</t>
         </is>
       </c>
     </row>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="C1347" t="inlineStr">
         <is>
-          <t>5910</t>
+          <t>5900</t>
         </is>
       </c>
     </row>
@@ -24091,7 +24091,7 @@
       </c>
       <c r="C1398" t="inlineStr">
         <is>
-          <t>50920</t>
+          <t>50910</t>
         </is>
       </c>
     </row>
@@ -24159,7 +24159,7 @@
       </c>
       <c r="C1402" t="inlineStr">
         <is>
-          <t>38460</t>
+          <t>38450</t>
         </is>
       </c>
     </row>
@@ -24618,7 +24618,7 @@
       </c>
       <c r="C1429" t="inlineStr">
         <is>
-          <t>23050</t>
+          <t>23040</t>
         </is>
       </c>
     </row>
@@ -24652,7 +24652,7 @@
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>80740</t>
+          <t>80730</t>
         </is>
       </c>
     </row>
@@ -24686,7 +24686,7 @@
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>26090</t>
+          <t>26080</t>
         </is>
       </c>
     </row>
@@ -25587,7 +25587,7 @@
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>68160</t>
+          <t>68150</t>
         </is>
       </c>
     </row>
@@ -26165,7 +26165,7 @@
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>33830</t>
+          <t>33440</t>
         </is>
       </c>
     </row>
@@ -27151,7 +27151,7 @@
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>58650</t>
+          <t>58640</t>
         </is>
       </c>
     </row>
@@ -27168,7 +27168,7 @@
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>25050</t>
+          <t>25040</t>
         </is>
       </c>
     </row>
@@ -28664,7 +28664,7 @@
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>32627</t>
+          <t>32763</t>
         </is>
       </c>
     </row>
@@ -30092,7 +30092,7 @@
       </c>
       <c r="C1751" t="inlineStr">
         <is>
-          <t>84490</t>
+          <t>84480</t>
         </is>
       </c>
     </row>
@@ -31316,7 +31316,7 @@
       </c>
       <c r="C1823" t="inlineStr">
         <is>
-          <t>188285</t>
+          <t>189069</t>
         </is>
       </c>
     </row>
@@ -32426,7 +32426,7 @@
       </c>
       <c r="C1889" t="inlineStr">
         <is>
-          <t>188285</t>
+          <t>189069</t>
         </is>
       </c>
     </row>
@@ -33536,7 +33536,7 @@
       </c>
       <c r="C1955" t="inlineStr">
         <is>
-          <t>188285</t>
+          <t>189069</t>
         </is>
       </c>
     </row>
@@ -34646,7 +34646,7 @@
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>188285</t>
+          <t>189069</t>
         </is>
       </c>
     </row>
@@ -35756,7 +35756,7 @@
       </c>
       <c r="C2087" t="inlineStr">
         <is>
-          <t>188285</t>
+          <t>189069</t>
         </is>
       </c>
     </row>
